--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,175 +40,199 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>thank</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>share</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
@@ -566,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,7 +601,7 @@
         <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9459459459459459</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
         <v>35</v>
@@ -653,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>35</v>
@@ -685,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.896551724137931</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8947368421052632</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9060052219321149</v>
+        <v>0.9216710182767625</v>
       </c>
       <c r="L6">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M6">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K7">
-        <v>0.9056603773584906</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.863013698630137</v>
+        <v>0.775</v>
       </c>
       <c r="C8">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K8">
-        <v>0.8936170212765957</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8611111111111112</v>
+        <v>0.7577519379844961</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>391</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>391</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8928571428571429</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.85</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8837209302325582</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7450980392156863</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8787878787878788</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7435897435897436</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L12">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7195767195767195</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C13">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>0.8732394366197183</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7027027027027027</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K14">
-        <v>0.8671875</v>
+        <v>0.85625</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6944444444444444</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.686046511627907</v>
+        <v>0.6442953020134228</v>
       </c>
       <c r="C16">
-        <v>354</v>
+        <v>96</v>
       </c>
       <c r="D16">
-        <v>354</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6545454545454545</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6440677966101694</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>50</v>
@@ -1435,13 +1459,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6410256410256411</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1453,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K19">
-        <v>0.8095238095238095</v>
+        <v>0.8125</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1477,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,13 +1509,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6375838926174496</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C20">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1503,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>52</v>
@@ -1512,10 +1536,10 @@
         <v>0.8</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1535,13 +1559,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.509090909090909</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1553,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K21">
-        <v>0.7617647058823529</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1577,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1585,13 +1609,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1603,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K22">
-        <v>0.7491525423728813</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L22">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1627,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1635,13 +1659,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1653,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K23">
-        <v>0.7489539748953975</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="M23">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1677,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1685,13 +1709,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4642857142857143</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1703,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K24">
-        <v>0.7254901960784313</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1727,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1735,13 +1759,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1753,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K25">
-        <v>0.7083333333333334</v>
+        <v>0.7423728813559322</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1777,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1785,13 +1809,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4047619047619048</v>
+        <v>0.2627345844504022</v>
       </c>
       <c r="C26">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D26">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1803,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K26">
-        <v>0.7076923076923077</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M26">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1827,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1835,13 +1859,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3625</v>
+        <v>0.1566666666666667</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1853,19 +1877,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K27">
-        <v>0.6914893617021277</v>
+        <v>0.74</v>
       </c>
       <c r="L27">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1877,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1885,37 +1909,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2734584450402145</v>
+        <v>0.01127214170692432</v>
       </c>
       <c r="C28">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>271</v>
+        <v>3070</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K28">
-        <v>0.651685393258427</v>
+        <v>0.7</v>
       </c>
       <c r="L28">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M28">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1927,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1935,13 +1959,13 @@
         <v>61</v>
       </c>
       <c r="K29">
-        <v>0.65</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1953,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1961,13 +1985,13 @@
         <v>62</v>
       </c>
       <c r="K30">
-        <v>0.5897435897435898</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1979,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1987,13 +2011,13 @@
         <v>63</v>
       </c>
       <c r="K31">
-        <v>0.5857142857142857</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2005,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2013,13 +2037,13 @@
         <v>64</v>
       </c>
       <c r="K32">
-        <v>0.547945205479452</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2031,7 +2055,215 @@
         <v>0</v>
       </c>
       <c r="Q32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33">
+        <v>0.6438356164383562</v>
+      </c>
+      <c r="L33">
+        <v>47</v>
+      </c>
+      <c r="M33">
+        <v>47</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="L34">
+        <v>39</v>
+      </c>
+      <c r="M34">
+        <v>39</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L35">
+        <v>28</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L36">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="L37">
+        <v>45</v>
+      </c>
+      <c r="M37">
+        <v>45</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38">
+        <v>0.5254237288135594</v>
+      </c>
+      <c r="L38">
+        <v>31</v>
+      </c>
+      <c r="M38">
+        <v>31</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39">
+        <v>0.5</v>
+      </c>
+      <c r="L39">
+        <v>32</v>
+      </c>
+      <c r="M39">
+        <v>32</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40">
+        <v>0.2935779816513762</v>
+      </c>
+      <c r="L40">
+        <v>32</v>
+      </c>
+      <c r="M40">
+        <v>32</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
